--- a/Data/cipc data.xlsx
+++ b/Data/cipc data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\IAS\Analytics\Wenbo Project\China Pacific\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\IAS\Analytics\Wenbo Project\ChinaPacific\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="A1:M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21929,8 +21929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG374"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
